--- a/Data/Commodities/Natural gas spot daily.xlsx
+++ b/Data/Commodities/Natural gas spot daily.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Dokumenter\GitHub\MasterThesis-\Commodoties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Dokumenter\GitHub\MasterThesis-\Data\Commodities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7650CC47-989D-443E-8899-645D5DBB25F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E4DE8-5B32-4804-B16B-D498FAEBB91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16988F30-16CD-46AF-AFC1-435EE6FE25F5}"/>
+    <workbookView xWindow="5055" yWindow="1260" windowWidth="21600" windowHeight="11295" xr2:uid="{16988F30-16CD-46AF-AFC1-435EE6FE25F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="EEX EGIX gas" sheetId="1" r:id="rId1"/>
+    <sheet name="EEX EGIX THe index EURMWH" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
     <author>Mathias Sperre</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{43CDC40C-2796-4478-A44D-1218E167E690}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8B0327C4-4E80-4D75-9BA1-BDC622F4C53C}">
       <text>
         <r>
           <rPr>
@@ -60,9 +60,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>EEX EGIX THE Index Eur/MWh</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>GasPrice</t>
   </si>
 </sst>
 </file>
@@ -124,22 +127,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="refinitivshim.rtdserver.dsgrid">
-      <tp t="s">
-        <v>Name</v>
-        <stp/>
-        <stp>1</stp>
-        <stp>157383937</stp>
-        <tr r="A1" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,11 +425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43BAD7D-41DE-462C-B0FD-0E2D49867664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2016EB52-6FB0-4F09-BB19-A907FFED26FE}">
   <dimension ref="A1:B1829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,12 +439,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>_xll.DSGRID("EEXNNCG","","-7Y","","Daily","RowHeader=true;ColHeader=true;DispSeriesDescription=true;YearlyTSFormat=false;QuarterlyTSFormat=false;MonthlyTSFormat=false")</f>
-        <v>Name</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15088,13 +15074,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="ID" r:id="rId1"/>
-    <customPr name="REFI_OFFICE_FUNCTION_DATA" r:id="rId2"/>
   </customProperties>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003FC8DBAE07225542B6EEA986345793A8" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e67cc9dc578bce80b198d5a7d29e497a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="09bdda89-f74d-4ede-8538-de7b995c196c" xmlns:ns4="5679abc1-e031-472d-9ebe-b340358b7b8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98d7b39239da608f85b9fac7df9adaa1" ns3:_="" ns4:_="">
     <xsd:import namespace="09bdda89-f74d-4ede-8538-de7b995c196c"/>
@@ -15277,15 +15271,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -15295,6 +15280,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{480FF5BD-29E5-4E33-B578-182308F6ADAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{823035AA-0E8F-48C0-8E78-87860165AEC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15309,14 +15302,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{480FF5BD-29E5-4E33-B578-182308F6ADAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
